--- a/sandbox/ConsoleApp/卡牌表.xlsx
+++ b/sandbox/ConsoleApp/卡牌表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="25">
   <si>
     <t xml:space="preserve">卡牌编号</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t xml:space="preserve">int</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EnumCardType</t>
   </si>
   <si>
     <t xml:space="preserve">int[]</t>
@@ -220,7 +223,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="M19" activeCellId="0" sqref="M19"/>
+      <selection pane="bottomLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.57421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -230,7 +233,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="15.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="9.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="9.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="13.46"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="11" style="1" width="9.57"/>
   </cols>
@@ -304,7 +307,7 @@
         <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>20</v>
@@ -325,10 +328,10 @@
         <v>20</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -336,7 +339,7 @@
         <v>10000</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>0</v>
@@ -357,10 +360,10 @@
         <v>0</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -368,7 +371,7 @@
         <v>10001</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>0</v>
@@ -389,10 +392,10 @@
         <v>0</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -400,7 +403,7 @@
         <v>10002</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>0</v>
@@ -421,10 +424,10 @@
         <v>0</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -432,7 +435,7 @@
         <v>10003</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" s="1" t="n">
         <v>0</v>
@@ -453,10 +456,10 @@
         <v>0</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -464,7 +467,7 @@
         <v>10004</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" s="1" t="n">
         <v>0</v>
@@ -485,10 +488,10 @@
         <v>0</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -496,7 +499,7 @@
         <v>10005</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" s="1" t="n">
         <v>0</v>
@@ -517,10 +520,10 @@
         <v>0</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -528,7 +531,7 @@
         <v>10006</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" s="1" t="n">
         <v>0</v>
@@ -549,10 +552,10 @@
         <v>0</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -560,7 +563,7 @@
         <v>10007</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" s="1" t="n">
         <v>0</v>
@@ -581,10 +584,10 @@
         <v>0</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -592,7 +595,7 @@
         <v>10008</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" s="1" t="n">
         <v>0</v>
@@ -613,10 +616,10 @@
         <v>0</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -624,7 +627,7 @@
         <v>10009</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>0</v>
@@ -645,10 +648,10 @@
         <v>0</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -656,7 +659,7 @@
         <v>10010</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C14" s="1" t="n">
         <v>0</v>
@@ -677,10 +680,10 @@
         <v>0</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -688,7 +691,7 @@
         <v>10011</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C15" s="1" t="n">
         <v>0</v>
@@ -709,10 +712,10 @@
         <v>0</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -720,7 +723,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/sandbox/ConsoleApp/卡牌表.xlsx
+++ b/sandbox/ConsoleApp/卡牌表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="26">
   <si>
     <t xml:space="preserve">卡牌编号</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t xml:space="preserve">HQCards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1]</t>
   </si>
   <si>
     <t xml:space="preserve">[]</t>
@@ -223,7 +226,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="I4" activeCellId="0" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.57421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -363,7 +366,7 @@
         <v>24</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -392,10 +395,10 @@
         <v>0</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -424,10 +427,10 @@
         <v>0</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -456,10 +459,10 @@
         <v>0</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -488,10 +491,10 @@
         <v>0</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -520,10 +523,10 @@
         <v>0</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -552,10 +555,10 @@
         <v>0</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -584,10 +587,10 @@
         <v>0</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -616,10 +619,10 @@
         <v>0</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -648,10 +651,10 @@
         <v>0</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -680,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -712,10 +715,10 @@
         <v>0</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -723,7 +726,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
